--- a/data/marburg/raw/marburg_quality_assessment.xlsx
+++ b/data/marburg/raw/marburg_quality_assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/cm401_ic_ac_uk/Documents/Papers/priority_pathogen/Marburg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="920" documentId="8_{DD7FAF09-F3D2-9F41-90EE-388A8FE7337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10C0D70-A921-9B4F-87BA-934EF375B22B}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="8_{DD7FAF09-F3D2-9F41-90EE-388A8FE7337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740322B4-192F-1D41-8B0E-15E98C1557FB}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1840" windowWidth="26840" windowHeight="15940" xr2:uid="{204F1B76-86E1-2140-B231-0E9BA86F3AE6}"/>
+    <workbookView xWindow="1920" yWindow="1840" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{204F1B76-86E1-2140-B231-0E9BA86F3AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$Q$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$Q$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">worksheet!$A$1:$O$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -48,7 +48,7 @@
     <author>tc={DDDEB593-A73C-0048-AB58-35095AA1D223}</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{DDDEB593-A73C-0048-AB58-35095AA1D223}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{DDDEB593-A73C-0048-AB58-35095AA1D223}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="184">
   <si>
     <t>CORRECTED</t>
   </si>
@@ -713,24 +713,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -796,7 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -818,12 +806,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,7 +1144,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C17" dT="2023-03-08T15:24:24.41" personId="{C2F5B933-CFE8-9440-9578-BA3C1F41BAF8}" id="{DDDEB593-A73C-0048-AB58-35095AA1D223}">
+  <threadedComment ref="C16" dT="2023-03-08T15:24:24.41" personId="{C2F5B933-CFE8-9440-9578-BA3C1F41BAF8}" id="{DDDEB593-A73C-0048-AB58-35095AA1D223}">
     <text>Did this one extra as one other paper removed</text>
   </threadedComment>
 </ThreadedComments>
@@ -1186,9 +1169,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D5F99C-F89C-1546-9539-CAEDAF4FD0D3}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1258,19 +1241,19 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="12" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P17" si="0">SUM(I4:O4)/(7-COUNTIF(I4:O4,"NA"))</f>
+        <f t="shared" ref="P4:P16" si="0">SUM(I4:O4)/(7-COUNTIF(I4:O4,"NA"))</f>
         <v>1</v>
       </c>
     </row>
@@ -1655,53 +1638,53 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="17">
         <v>2014</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
-        <v>1</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="24">
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>1</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
@@ -1757,9 +1740,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>61</v>
@@ -1770,74 +1753,74 @@
       <c r="D13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="17">
         <v>2017</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="15">
-        <v>1</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="I13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>62</v>
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F14">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -1846,17 +1829,17 @@
         <v>27</v>
       </c>
       <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1867,47 +1850,44 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1915,34 +1895,35 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16">
-        <v>2012</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -1955,121 +1936,72 @@
       </c>
       <c r="P16" s="4">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1989</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20">
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="K20">
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="O20">
+      <c r="O19">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="13">
+        <f>SUM(I19:O19)/64</f>
+        <v>0.328125</v>
+      </c>
+      <c r="G21" s="13">
+        <f>SUM(I19:O19)/49</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="16">
-        <f>SUM(I20:O20)/64</f>
-        <v>0.328125</v>
-      </c>
-      <c r="G22" s="16">
-        <f>SUM(I20:O20)/49</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="16">
-        <f>1-C22</f>
+      <c r="C22" s="13">
+        <f>1-C21</f>
         <v>0.671875</v>
       </c>
-      <c r="G23" s="16">
-        <f>1-G22</f>
+      <c r="G22" s="13">
+        <f>1-G21</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q23" xr:uid="{D2D5F99C-F89C-1546-9539-CAEDAF4FD0D3}">
+  <autoFilter ref="A2:Q22" xr:uid="{D2D5F99C-F89C-1546-9539-CAEDAF4FD0D3}">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q17">
-    <sortCondition ref="D4:D17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q16">
+    <sortCondition ref="D4:D16"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="I2:J2"/>
@@ -3590,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4C9EC1-E25A-BB41-960A-323B30FAB8AF}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4614,177 +4546,177 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="26">
-        <v>0</v>
-      </c>
-      <c r="C40" s="26">
-        <v>0</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0</v>
-      </c>
-      <c r="E40" s="26">
-        <v>0</v>
-      </c>
-      <c r="F40" s="26">
-        <v>1</v>
-      </c>
-      <c r="G40" s="26">
-        <v>0</v>
-      </c>
-      <c r="H40" s="26">
-        <v>0</v>
-      </c>
-      <c r="I40" s="26"/>
+      <c r="B40" s="21">
+        <v>0</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="26">
-        <v>1</v>
-      </c>
-      <c r="C41" s="26">
-        <v>1</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="26">
-        <v>0</v>
-      </c>
-      <c r="G41" s="26">
-        <v>0</v>
-      </c>
-      <c r="H41" s="26">
-        <v>0</v>
-      </c>
-      <c r="I41" s="26"/>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="26">
-        <v>1</v>
-      </c>
-      <c r="G42" s="26">
-        <v>1</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="26"/>
+      <c r="B42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="26">
-        <v>1</v>
-      </c>
-      <c r="C43" s="26">
-        <v>1</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="26">
-        <v>0</v>
-      </c>
-      <c r="G43" s="26">
-        <v>1</v>
-      </c>
-      <c r="H43" s="26">
-        <v>0</v>
-      </c>
-      <c r="I43" s="26"/>
+      <c r="B43" s="21">
+        <v>1</v>
+      </c>
+      <c r="C43" s="21">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21">
+        <v>1</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="26">
-        <v>1</v>
-      </c>
-      <c r="C44" s="26">
-        <v>0</v>
-      </c>
-      <c r="D44" s="26">
-        <v>0</v>
-      </c>
-      <c r="E44" s="26">
-        <v>0</v>
-      </c>
-      <c r="F44" s="26">
-        <v>0</v>
-      </c>
-      <c r="G44" s="26">
-        <v>0</v>
-      </c>
-      <c r="H44" s="26">
-        <v>0</v>
-      </c>
-      <c r="I44" s="26"/>
+      <c r="B44" s="21">
+        <v>1</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0</v>
+      </c>
+      <c r="H44" s="21">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="27">
-        <v>0</v>
-      </c>
-      <c r="C45" s="27">
-        <v>0</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="26">
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
-        <v>0</v>
-      </c>
-      <c r="H45" s="26">
-        <v>0</v>
-      </c>
-      <c r="I45" s="26"/>
+      <c r="B45" s="22">
+        <v>0</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="21">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21">
+        <v>0</v>
+      </c>
+      <c r="H45" s="21">
+        <v>0</v>
+      </c>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4844,19 +4776,19 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
